--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanakatomoki/RustroverProjects/InazumaTournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C6511-C5BF-284B-BDF1-F254488099A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4C13A-6EDB-6541-AABC-AFEEB0035D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2960" windowWidth="28300" windowHeight="17360" xr2:uid="{9FC66EDC-E15A-5849-BBF5-3A79F42A0DF8}"/>
   </bookViews>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76413D2D-C900-7E42-9378-594D56D93E31}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1769,6 +1769,9 @@
       <c r="K11" t="s">
         <v>116</v>
       </c>
+      <c r="L11">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -1798,6 +1801,9 @@
       <c r="K12" t="s">
         <v>116</v>
       </c>
+      <c r="L12">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -1923,6 +1929,9 @@
       <c r="K16" t="s">
         <v>116</v>
       </c>
+      <c r="L16">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
@@ -1952,6 +1961,9 @@
       <c r="K17" t="s">
         <v>116</v>
       </c>
+      <c r="L17">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
@@ -2013,6 +2025,9 @@
       <c r="K19" t="s">
         <v>116</v>
       </c>
+      <c r="L19">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
@@ -2042,6 +2057,9 @@
       <c r="K20" t="s">
         <v>116</v>
       </c>
+      <c r="L20">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
@@ -2071,6 +2089,9 @@
       <c r="K21" t="s">
         <v>116</v>
       </c>
+      <c r="L21">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
@@ -2132,6 +2153,9 @@
       <c r="K23" t="s">
         <v>116</v>
       </c>
+      <c r="L23">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
@@ -2161,6 +2185,9 @@
       <c r="K24" t="s">
         <v>116</v>
       </c>
+      <c r="L24">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
@@ -2190,6 +2217,9 @@
       <c r="K25" t="s">
         <v>116</v>
       </c>
+      <c r="L25">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
@@ -2218,6 +2248,9 @@
       </c>
       <c r="K26" t="s">
         <v>116</v>
+      </c>
+      <c r="L26">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:12">

--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanakatomoki/RustroverProjects/InazumaTournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4C13A-6EDB-6541-AABC-AFEEB0035D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5FF7CE-8FA2-2E4D-9B46-822B15595565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2960" windowWidth="28300" windowHeight="17360" xr2:uid="{9FC66EDC-E15A-5849-BBF5-3A79F42A0DF8}"/>
+    <workbookView xWindow="4140" yWindow="2380" windowWidth="28300" windowHeight="17360" xr2:uid="{9FC66EDC-E15A-5849-BBF5-3A79F42A0DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="150">
   <si>
     <t>チーム名</t>
     <phoneticPr fontId="1"/>
@@ -998,6 +998,128 @@
     <rPh sb="2" eb="4">
       <t>ガクエn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GO1</t>
+  </si>
+  <si>
+    <t>天河原中</t>
+    <rPh sb="0" eb="3">
+      <t>テンガワル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万能坂中</t>
+    <rPh sb="0" eb="3">
+      <t>マンノウザカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>💋</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海王学園</t>
+    <rPh sb="0" eb="1">
+      <t>カモメサッカークラブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクエn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋空チャレンジャーズ</t>
+    <rPh sb="0" eb="1">
+      <t>アキズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月山国光中</t>
+    <rPh sb="0" eb="2">
+      <t>ガッサn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白恋中</t>
+    <rPh sb="0" eb="2">
+      <t>ハクレn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンリミテッドシャイニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンシャントダーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幻影学園</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクエn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>革命選抜チーム</t>
+    <rPh sb="0" eb="4">
+      <t>カクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新雲学園</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アラクモ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクエn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖堂山中</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ドウ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ザン </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンリンク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1399,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76413D2D-C900-7E42-9378-594D56D93E31}">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2281,6 +2403,9 @@
       <c r="K27" t="s">
         <v>116</v>
       </c>
+      <c r="L27">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
@@ -2705,624 +2830,522 @@
       <c r="K41" t="s">
         <v>116</v>
       </c>
+      <c r="L41">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J42">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L42">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
+        <v>135</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H43">
         <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J43">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L43">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H44">
         <v>30</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J44">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L44">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" t="s">
-        <v>23</v>
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H45">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J45">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L45">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H46">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J46">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L46">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H47">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J47">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L47">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H48">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48">
         <v>49</v>
       </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48">
-        <v>61</v>
-      </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L48">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H49">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J49">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L49">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50">
         <v>53</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50">
-        <v>43</v>
-      </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50">
-        <v>64</v>
-      </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L50">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51">
-        <v>45</v>
-      </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51">
-        <v>66</v>
-      </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L51">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H52">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J52">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L52">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>31</v>
+        <v>135</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H53">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J53">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L53">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
+        <v>135</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H54">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J54">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="L54">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
+        <v>135</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J55">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>36</v>
+        <v>135</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H56">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J56">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J57">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -3331,36 +3354,36 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
         <v>14</v>
       </c>
       <c r="J58">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s">
         <v>15</v>
       </c>
       <c r="L58">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3369,36 +3392,36 @@
         <v>11</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I59" t="s">
         <v>14</v>
       </c>
       <c r="J59">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s">
         <v>15</v>
       </c>
       <c r="L59">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -3407,36 +3430,36 @@
         <v>11</v>
       </c>
       <c r="F60">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I60" t="s">
         <v>14</v>
       </c>
       <c r="J60">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
         <v>15</v>
       </c>
       <c r="L60">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -3445,36 +3468,36 @@
         <v>11</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I61" t="s">
         <v>14</v>
       </c>
       <c r="J61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K61" t="s">
         <v>15</v>
       </c>
       <c r="L61">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -3483,36 +3506,36 @@
         <v>11</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
         <v>14</v>
       </c>
       <c r="J62">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K62" t="s">
         <v>15</v>
       </c>
       <c r="L62">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -3521,36 +3544,36 @@
         <v>11</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s">
         <v>14</v>
       </c>
       <c r="J63">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K63" t="s">
         <v>15</v>
       </c>
       <c r="L63">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -3559,36 +3582,36 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s">
         <v>14</v>
       </c>
       <c r="J64">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K64" t="s">
         <v>15</v>
       </c>
       <c r="L64">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -3597,36 +3620,36 @@
         <v>11</v>
       </c>
       <c r="F65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I65" t="s">
         <v>14</v>
       </c>
       <c r="J65">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K65" t="s">
         <v>15</v>
       </c>
       <c r="L65">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -3635,36 +3658,36 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s">
         <v>14</v>
       </c>
       <c r="J66">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K66" t="s">
         <v>15</v>
       </c>
       <c r="L66">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -3673,36 +3696,36 @@
         <v>11</v>
       </c>
       <c r="F67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="H67">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
       </c>
       <c r="J67">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K67" t="s">
         <v>15</v>
       </c>
       <c r="L67">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -3734,13 +3757,13 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -3749,36 +3772,36 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
       </c>
       <c r="H69">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
       </c>
       <c r="J69">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
       </c>
       <c r="L69">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -3787,36 +3810,36 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
       <c r="H70">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I70" t="s">
         <v>14</v>
       </c>
       <c r="J70">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K70" t="s">
         <v>15</v>
       </c>
       <c r="L70">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>51</v>
+      <c r="C71" t="s">
+        <v>35</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -3825,36 +3848,36 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
       <c r="H71">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
         <v>14</v>
       </c>
       <c r="J71">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s">
         <v>15</v>
       </c>
       <c r="L71">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -3863,36 +3886,36 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
         <v>14</v>
       </c>
       <c r="J72">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s">
         <v>15</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -3901,36 +3924,36 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
       <c r="H73">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
       </c>
       <c r="J73">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K73" t="s">
         <v>15</v>
       </c>
       <c r="L73">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -3939,36 +3962,36 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="H74">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
       </c>
       <c r="J74">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="K74" t="s">
         <v>15</v>
       </c>
       <c r="L74">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -3977,36 +4000,36 @@
         <v>11</v>
       </c>
       <c r="F75">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
       </c>
       <c r="H75">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
       </c>
       <c r="J75">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K75" t="s">
         <v>15</v>
       </c>
       <c r="L75">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -4015,36 +4038,36 @@
         <v>11</v>
       </c>
       <c r="F76">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I76" t="s">
         <v>14</v>
       </c>
       <c r="J76">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="K76" t="s">
         <v>15</v>
       </c>
       <c r="L76">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -4053,36 +4076,36 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
       </c>
       <c r="H77">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I77" t="s">
         <v>14</v>
       </c>
       <c r="J77">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K77" t="s">
         <v>15</v>
       </c>
       <c r="L77">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -4091,36 +4114,36 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
       <c r="H78">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s">
         <v>14</v>
       </c>
       <c r="J78">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K78" t="s">
         <v>15</v>
       </c>
       <c r="L78">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -4129,36 +4152,36 @@
         <v>11</v>
       </c>
       <c r="F79">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
       <c r="H79">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s">
         <v>14</v>
       </c>
       <c r="J79">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="K79" t="s">
         <v>15</v>
       </c>
       <c r="L79">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -4167,36 +4190,36 @@
         <v>11</v>
       </c>
       <c r="F80">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
         <v>13</v>
       </c>
       <c r="H80">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
       </c>
       <c r="J80">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K80" t="s">
         <v>15</v>
       </c>
       <c r="L80">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -4205,36 +4228,36 @@
         <v>11</v>
       </c>
       <c r="F81">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
       </c>
       <c r="H81">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
       </c>
       <c r="J81">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K81" t="s">
         <v>15</v>
       </c>
       <c r="L81">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -4243,36 +4266,36 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
       </c>
       <c r="H82">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I82" t="s">
         <v>14</v>
       </c>
       <c r="J82">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="K82" t="s">
         <v>15</v>
       </c>
       <c r="L82">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -4281,36 +4304,36 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
       </c>
       <c r="H83">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
         <v>14</v>
       </c>
       <c r="J83">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K83" t="s">
         <v>15</v>
       </c>
       <c r="L83">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -4319,36 +4342,36 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
       </c>
       <c r="H84">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
       </c>
       <c r="J84">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="K84" t="s">
         <v>15</v>
       </c>
       <c r="L84">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -4357,36 +4380,36 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
       </c>
       <c r="H85">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
       </c>
       <c r="J85">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K85" t="s">
         <v>15</v>
       </c>
       <c r="L85">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -4395,63 +4418,63 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
       </c>
       <c r="H86">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
       </c>
       <c r="J86">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K86" t="s">
         <v>15</v>
       </c>
       <c r="L86">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87">
+        <v>51</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
         <v>71</v>
       </c>
-      <c r="H87">
+      <c r="K87" t="s">
         <v>15</v>
       </c>
-      <c r="I87" t="s">
-        <v>72</v>
-      </c>
-      <c r="J87">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s">
-        <v>73</v>
-      </c>
       <c r="L87">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4462,31 +4485,31 @@
         <v>56</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
       </c>
       <c r="F88">
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H88">
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J88">
         <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L88">
         <v>25</v>
@@ -4500,34 +4523,34 @@
         <v>56</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
       </c>
       <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89">
         <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
-      </c>
-      <c r="H89">
-        <v>31</v>
-      </c>
-      <c r="I89" t="s">
-        <v>72</v>
-      </c>
-      <c r="J89">
-        <v>35</v>
-      </c>
-      <c r="K89" t="s">
-        <v>73</v>
-      </c>
-      <c r="L89">
-        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4538,34 +4561,34 @@
         <v>56</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H90">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J90">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K90" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L90">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4576,34 +4599,34 @@
         <v>56</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J91">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K91" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L91">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4616,29 +4639,29 @@
       <c r="C92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>70</v>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
       </c>
       <c r="F92">
         <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H92">
         <v>27</v>
       </c>
       <c r="I92" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J92">
         <v>33</v>
       </c>
       <c r="K92" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L92">
         <v>36</v>
@@ -4652,34 +4675,34 @@
         <v>56</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H93">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I93" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J93">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K93" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L93">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4690,34 +4713,34 @@
         <v>56</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H94">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J94">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K94" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L94">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4730,29 +4753,29 @@
       <c r="C95" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>70</v>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
       </c>
       <c r="F95">
         <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H95">
         <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J95">
         <v>37</v>
       </c>
       <c r="K95" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L95">
         <v>49</v>
@@ -4768,29 +4791,29 @@
       <c r="C96" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>70</v>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
       </c>
       <c r="F96">
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H96">
         <v>37</v>
       </c>
       <c r="I96" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J96">
         <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L96">
         <v>53</v>
@@ -4804,34 +4827,34 @@
         <v>56</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
       </c>
       <c r="F97">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97">
         <v>36</v>
       </c>
-      <c r="G97" t="s">
-        <v>71</v>
-      </c>
-      <c r="H97">
-        <v>45</v>
-      </c>
       <c r="I97" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J97">
+        <v>44</v>
+      </c>
+      <c r="K97" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97">
         <v>52</v>
-      </c>
-      <c r="K97" t="s">
-        <v>73</v>
-      </c>
-      <c r="L97">
-        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4842,31 +4865,31 @@
         <v>56</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
       </c>
       <c r="F98">
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H98">
         <v>36</v>
       </c>
       <c r="I98" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J98">
         <v>44</v>
       </c>
       <c r="K98" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L98">
         <v>52</v>
@@ -4880,31 +4903,31 @@
         <v>56</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
       </c>
       <c r="F99">
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H99">
         <v>36</v>
       </c>
       <c r="I99" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J99">
         <v>44</v>
       </c>
       <c r="K99" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L99">
         <v>52</v>
@@ -4918,34 +4941,34 @@
         <v>56</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H100">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I100" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J100">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K100" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L100">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4958,29 +4981,29 @@
       <c r="C101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>70</v>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
       </c>
       <c r="F101">
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H101">
         <v>45</v>
       </c>
       <c r="I101" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J101">
         <v>52</v>
       </c>
       <c r="K101" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="L101">
         <v>60</v>
@@ -4994,34 +5017,34 @@
         <v>56</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102">
+        <v>51</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102">
+        <v>61</v>
+      </c>
+      <c r="K102" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102">
         <v>71</v>
-      </c>
-      <c r="H102">
-        <v>22</v>
-      </c>
-      <c r="I102" t="s">
-        <v>72</v>
-      </c>
-      <c r="J102">
-        <v>25</v>
-      </c>
-      <c r="K102" t="s">
-        <v>73</v>
-      </c>
-      <c r="L102">
-        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5032,7 +5055,7 @@
         <v>56</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>16</v>
@@ -5041,25 +5064,25 @@
         <v>70</v>
       </c>
       <c r="F103">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H103">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
         <v>72</v>
       </c>
       <c r="J103">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K103" t="s">
         <v>73</v>
       </c>
       <c r="L103">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5070,7 +5093,7 @@
         <v>56</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>16</v>
@@ -5079,25 +5102,25 @@
         <v>70</v>
       </c>
       <c r="F104">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G104" t="s">
         <v>71</v>
       </c>
       <c r="H104">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
         <v>72</v>
       </c>
       <c r="J104">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s">
         <v>73</v>
       </c>
       <c r="L104">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5108,7 +5131,7 @@
         <v>56</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>16</v>
@@ -5117,25 +5140,25 @@
         <v>70</v>
       </c>
       <c r="F105">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
         <v>71</v>
       </c>
       <c r="H105">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I105" t="s">
         <v>72</v>
       </c>
       <c r="J105">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K105" t="s">
         <v>73</v>
       </c>
       <c r="L105">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5146,7 +5169,7 @@
         <v>56</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>16</v>
@@ -5155,25 +5178,25 @@
         <v>70</v>
       </c>
       <c r="F106">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
         <v>71</v>
       </c>
       <c r="H106">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I106" t="s">
         <v>72</v>
       </c>
       <c r="J106">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K106" t="s">
         <v>73</v>
       </c>
       <c r="L106">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5184,7 +5207,7 @@
         <v>56</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>16</v>
@@ -5193,25 +5216,25 @@
         <v>70</v>
       </c>
       <c r="F107">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
         <v>71</v>
       </c>
       <c r="H107">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
         <v>72</v>
       </c>
       <c r="J107">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K107" t="s">
         <v>73</v>
       </c>
       <c r="L107">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5222,7 +5245,7 @@
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>16</v>
@@ -5231,25 +5254,25 @@
         <v>70</v>
       </c>
       <c r="F108">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
         <v>71</v>
       </c>
       <c r="H108">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I108" t="s">
         <v>72</v>
       </c>
       <c r="J108">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K108" t="s">
         <v>73</v>
       </c>
       <c r="L108">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5260,7 +5283,7 @@
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>16</v>
@@ -5269,25 +5292,25 @@
         <v>70</v>
       </c>
       <c r="F109">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G109" t="s">
         <v>71</v>
       </c>
       <c r="H109">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I109" t="s">
         <v>72</v>
       </c>
       <c r="J109">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K109" t="s">
         <v>73</v>
       </c>
       <c r="L109">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5298,7 +5321,7 @@
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>16</v>
@@ -5307,25 +5330,25 @@
         <v>70</v>
       </c>
       <c r="F110">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
       </c>
       <c r="H110">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I110" t="s">
         <v>72</v>
       </c>
       <c r="J110">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K110" t="s">
         <v>73</v>
       </c>
       <c r="L110">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5336,7 +5359,7 @@
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>16</v>
@@ -5345,25 +5368,25 @@
         <v>70</v>
       </c>
       <c r="F111">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
         <v>71</v>
       </c>
       <c r="H111">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I111" t="s">
         <v>72</v>
       </c>
       <c r="J111">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K111" t="s">
         <v>73</v>
       </c>
       <c r="L111">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5374,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>16</v>
@@ -5383,25 +5406,25 @@
         <v>70</v>
       </c>
       <c r="F112">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>71</v>
       </c>
       <c r="H112">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I112" t="s">
         <v>72</v>
       </c>
       <c r="J112">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K112" t="s">
         <v>73</v>
       </c>
       <c r="L112">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5412,7 +5435,7 @@
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>16</v>
@@ -5421,25 +5444,25 @@
         <v>70</v>
       </c>
       <c r="F113">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>71</v>
       </c>
       <c r="H113">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I113" t="s">
         <v>72</v>
       </c>
       <c r="J113">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K113" t="s">
         <v>73</v>
       </c>
       <c r="L113">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5450,7 +5473,7 @@
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>16</v>
@@ -5459,25 +5482,25 @@
         <v>70</v>
       </c>
       <c r="F114">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>71</v>
       </c>
       <c r="H114">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I114" t="s">
         <v>72</v>
       </c>
       <c r="J114">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K114" t="s">
         <v>73</v>
       </c>
       <c r="L114">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5488,7 +5511,7 @@
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>16</v>
@@ -5497,25 +5520,25 @@
         <v>70</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>71</v>
       </c>
       <c r="H115">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I115" t="s">
         <v>72</v>
       </c>
       <c r="J115">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K115" t="s">
         <v>73</v>
       </c>
       <c r="L115">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5526,7 +5549,7 @@
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>16</v>
@@ -5535,25 +5558,25 @@
         <v>70</v>
       </c>
       <c r="F116">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>71</v>
       </c>
       <c r="H116">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I116" t="s">
         <v>72</v>
       </c>
       <c r="J116">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K116" t="s">
         <v>73</v>
       </c>
       <c r="L116">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5564,7 +5587,7 @@
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>16</v>
@@ -5573,25 +5596,25 @@
         <v>70</v>
       </c>
       <c r="F117">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>71</v>
       </c>
       <c r="H117">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I117" t="s">
         <v>72</v>
       </c>
       <c r="J117">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K117" t="s">
         <v>73</v>
       </c>
       <c r="L117">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5602,7 +5625,7 @@
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>16</v>
@@ -5611,25 +5634,25 @@
         <v>70</v>
       </c>
       <c r="F118">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
         <v>71</v>
       </c>
       <c r="H118">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I118" t="s">
         <v>72</v>
       </c>
       <c r="J118">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K118" t="s">
         <v>73</v>
       </c>
       <c r="L118">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5640,7 +5663,7 @@
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>16</v>
@@ -5649,25 +5672,25 @@
         <v>70</v>
       </c>
       <c r="F119">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
         <v>86</v>
       </c>
       <c r="H119">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I119" t="s">
         <v>72</v>
       </c>
       <c r="J119">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="K119" t="s">
         <v>73</v>
       </c>
       <c r="L119">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5678,7 +5701,7 @@
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>16</v>
@@ -5687,25 +5710,25 @@
         <v>70</v>
       </c>
       <c r="F120">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
         <v>71</v>
       </c>
       <c r="H120">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I120" t="s">
         <v>72</v>
       </c>
       <c r="J120">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K120" t="s">
         <v>73</v>
       </c>
       <c r="L120">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5716,7 +5739,7 @@
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>16</v>
@@ -5725,25 +5748,25 @@
         <v>70</v>
       </c>
       <c r="F121">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G121" t="s">
         <v>71</v>
       </c>
       <c r="H121">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I121" t="s">
         <v>72</v>
       </c>
       <c r="J121">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K121" t="s">
         <v>73</v>
       </c>
       <c r="L121">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5754,7 +5777,7 @@
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>16</v>
@@ -5763,25 +5786,25 @@
         <v>70</v>
       </c>
       <c r="F122">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H122">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I122" t="s">
         <v>72</v>
       </c>
       <c r="J122">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K122" t="s">
         <v>73</v>
       </c>
       <c r="L122">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5792,7 +5815,7 @@
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>16</v>
@@ -5801,25 +5824,25 @@
         <v>70</v>
       </c>
       <c r="F123">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G123" t="s">
         <v>71</v>
       </c>
       <c r="H123">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I123" t="s">
         <v>72</v>
       </c>
       <c r="J123">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K123" t="s">
         <v>73</v>
       </c>
       <c r="L123">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5830,7 +5853,7 @@
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>16</v>
@@ -5839,25 +5862,25 @@
         <v>70</v>
       </c>
       <c r="F124">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
         <v>71</v>
       </c>
       <c r="H124">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I124" t="s">
         <v>72</v>
       </c>
       <c r="J124">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K124" t="s">
         <v>73</v>
       </c>
       <c r="L124">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5868,7 +5891,7 @@
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>16</v>
@@ -5877,25 +5900,25 @@
         <v>70</v>
       </c>
       <c r="F125">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
         <v>71</v>
       </c>
       <c r="H125">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I125" t="s">
         <v>72</v>
       </c>
       <c r="J125">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K125" t="s">
         <v>73</v>
       </c>
       <c r="L125">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5906,7 +5929,7 @@
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>16</v>
@@ -5915,25 +5938,25 @@
         <v>70</v>
       </c>
       <c r="F126">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
         <v>71</v>
       </c>
       <c r="H126">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I126" t="s">
         <v>72</v>
       </c>
       <c r="J126">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K126" t="s">
         <v>73</v>
       </c>
       <c r="L126">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5944,7 +5967,7 @@
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>16</v>
@@ -5953,25 +5976,25 @@
         <v>70</v>
       </c>
       <c r="F127">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>71</v>
       </c>
       <c r="H127">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I127" t="s">
         <v>72</v>
       </c>
       <c r="J127">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K127" t="s">
         <v>73</v>
       </c>
       <c r="L127">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5982,7 +6005,7 @@
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>16</v>
@@ -5991,25 +6014,25 @@
         <v>70</v>
       </c>
       <c r="F128">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
         <v>71</v>
       </c>
       <c r="H128">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I128" t="s">
         <v>72</v>
       </c>
       <c r="J128">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="K128" t="s">
         <v>73</v>
       </c>
       <c r="L128">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6020,7 +6043,7 @@
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>16</v>
@@ -6029,25 +6052,25 @@
         <v>70</v>
       </c>
       <c r="F129">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
         <v>71</v>
       </c>
       <c r="H129">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I129" t="s">
         <v>72</v>
       </c>
       <c r="J129">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="K129" t="s">
         <v>73</v>
       </c>
       <c r="L129">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6058,7 +6081,7 @@
         <v>56</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>16</v>
@@ -6067,25 +6090,25 @@
         <v>70</v>
       </c>
       <c r="F130">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G130" t="s">
         <v>71</v>
       </c>
       <c r="H130">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I130" t="s">
         <v>72</v>
       </c>
       <c r="J130">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K130" t="s">
         <v>73</v>
       </c>
       <c r="L130">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6096,7 +6119,7 @@
         <v>56</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>16</v>
@@ -6105,25 +6128,25 @@
         <v>70</v>
       </c>
       <c r="F131">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G131" t="s">
         <v>71</v>
       </c>
       <c r="H131">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I131" t="s">
         <v>72</v>
       </c>
       <c r="J131">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K131" t="s">
         <v>73</v>
       </c>
       <c r="L131">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6134,7 +6157,7 @@
         <v>56</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>16</v>
@@ -6143,25 +6166,25 @@
         <v>70</v>
       </c>
       <c r="F132">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G132" t="s">
         <v>71</v>
       </c>
       <c r="H132">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I132" t="s">
         <v>72</v>
       </c>
       <c r="J132">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K132" t="s">
         <v>73</v>
       </c>
       <c r="L132">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6172,7 +6195,7 @@
         <v>56</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>16</v>
@@ -6181,25 +6204,25 @@
         <v>70</v>
       </c>
       <c r="F133">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>71</v>
       </c>
       <c r="H133">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I133" t="s">
         <v>72</v>
       </c>
       <c r="J133">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K133" t="s">
         <v>73</v>
       </c>
       <c r="L133">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6210,7 +6233,7 @@
         <v>56</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>16</v>
@@ -6219,25 +6242,25 @@
         <v>70</v>
       </c>
       <c r="F134">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>71</v>
       </c>
       <c r="H134">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I134" t="s">
         <v>72</v>
       </c>
       <c r="J134">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K134" t="s">
         <v>73</v>
       </c>
       <c r="L134">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6248,7 +6271,7 @@
         <v>56</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>16</v>
@@ -6257,25 +6280,25 @@
         <v>70</v>
       </c>
       <c r="F135">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H135">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I135" t="s">
         <v>72</v>
       </c>
       <c r="J135">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K135" t="s">
         <v>73</v>
       </c>
       <c r="L135">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6286,7 +6309,7 @@
         <v>56</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>16</v>
@@ -6295,25 +6318,25 @@
         <v>70</v>
       </c>
       <c r="F136">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
         <v>71</v>
       </c>
       <c r="H136">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I136" t="s">
         <v>72</v>
       </c>
       <c r="J136">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K136" t="s">
         <v>73</v>
       </c>
       <c r="L136">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6324,7 +6347,7 @@
         <v>56</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>16</v>
@@ -6333,25 +6356,25 @@
         <v>70</v>
       </c>
       <c r="F137">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
         <v>71</v>
       </c>
       <c r="H137">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I137" t="s">
         <v>72</v>
       </c>
       <c r="J137">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K137" t="s">
         <v>73</v>
       </c>
       <c r="L137">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6362,7 +6385,7 @@
         <v>56</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>16</v>
@@ -6371,24 +6394,632 @@
         <v>70</v>
       </c>
       <c r="F138">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H138">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I138" t="s">
         <v>72</v>
       </c>
       <c r="J138">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="K138" t="s">
         <v>73</v>
       </c>
       <c r="L138">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>55</v>
+      </c>
+      <c r="B139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F139">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139">
+        <v>21</v>
+      </c>
+      <c r="I139" t="s">
+        <v>72</v>
+      </c>
+      <c r="J139">
+        <v>27</v>
+      </c>
+      <c r="K139" t="s">
+        <v>73</v>
+      </c>
+      <c r="L139">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F140">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H140">
+        <v>26</v>
+      </c>
+      <c r="I140" t="s">
+        <v>72</v>
+      </c>
+      <c r="J140">
+        <v>31</v>
+      </c>
+      <c r="K140" t="s">
+        <v>73</v>
+      </c>
+      <c r="L140">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F141">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141">
+        <v>33</v>
+      </c>
+      <c r="I141" t="s">
+        <v>72</v>
+      </c>
+      <c r="J141">
+        <v>37</v>
+      </c>
+      <c r="K141" t="s">
+        <v>73</v>
+      </c>
+      <c r="L141">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142">
+        <v>33</v>
+      </c>
+      <c r="I142" t="s">
+        <v>72</v>
+      </c>
+      <c r="J142">
+        <v>37</v>
+      </c>
+      <c r="K142" t="s">
+        <v>73</v>
+      </c>
+      <c r="L142">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F143">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
+        <v>71</v>
+      </c>
+      <c r="H143">
+        <v>36</v>
+      </c>
+      <c r="I143" t="s">
+        <v>72</v>
+      </c>
+      <c r="J143">
+        <v>44</v>
+      </c>
+      <c r="K143" t="s">
+        <v>73</v>
+      </c>
+      <c r="L143">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F144">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144">
+        <v>37</v>
+      </c>
+      <c r="I144" t="s">
+        <v>72</v>
+      </c>
+      <c r="J144">
+        <v>45</v>
+      </c>
+      <c r="K144" t="s">
+        <v>73</v>
+      </c>
+      <c r="L144">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145">
+        <v>35</v>
+      </c>
+      <c r="I145" t="s">
+        <v>72</v>
+      </c>
+      <c r="J145">
+        <v>44</v>
+      </c>
+      <c r="K145" t="s">
+        <v>73</v>
+      </c>
+      <c r="L145">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146">
+        <v>22</v>
+      </c>
+      <c r="I146" t="s">
+        <v>72</v>
+      </c>
+      <c r="J146">
+        <v>26</v>
+      </c>
+      <c r="K146" t="s">
+        <v>73</v>
+      </c>
+      <c r="L146">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147">
+        <v>23</v>
+      </c>
+      <c r="I147" t="s">
+        <v>72</v>
+      </c>
+      <c r="J147">
+        <v>25</v>
+      </c>
+      <c r="K147" t="s">
+        <v>73</v>
+      </c>
+      <c r="L147">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F148">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148">
+        <v>25</v>
+      </c>
+      <c r="I148" t="s">
+        <v>72</v>
+      </c>
+      <c r="J148">
+        <v>31</v>
+      </c>
+      <c r="K148" t="s">
+        <v>73</v>
+      </c>
+      <c r="L148">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>55</v>
+      </c>
+      <c r="B149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F149">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s">
+        <v>72</v>
+      </c>
+      <c r="J149">
+        <v>32</v>
+      </c>
+      <c r="K149" t="s">
+        <v>73</v>
+      </c>
+      <c r="L149">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F150">
+        <v>27</v>
+      </c>
+      <c r="G150" t="s">
+        <v>71</v>
+      </c>
+      <c r="H150">
+        <v>31</v>
+      </c>
+      <c r="I150" t="s">
+        <v>72</v>
+      </c>
+      <c r="J150">
+        <v>36</v>
+      </c>
+      <c r="K150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L150">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F151">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s">
+        <v>72</v>
+      </c>
+      <c r="J151">
+        <v>37</v>
+      </c>
+      <c r="K151" t="s">
+        <v>73</v>
+      </c>
+      <c r="L151">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F152">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152">
+        <v>36</v>
+      </c>
+      <c r="I152" t="s">
+        <v>72</v>
+      </c>
+      <c r="J152">
+        <v>44</v>
+      </c>
+      <c r="K152" t="s">
+        <v>73</v>
+      </c>
+      <c r="L152">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F153">
+        <v>35</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153">
+        <v>43</v>
+      </c>
+      <c r="I153" t="s">
+        <v>72</v>
+      </c>
+      <c r="J153">
+        <v>47</v>
+      </c>
+      <c r="K153" t="s">
+        <v>73</v>
+      </c>
+      <c r="L153">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F154">
+        <v>36</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154">
+        <v>44</v>
+      </c>
+      <c r="I154" t="s">
+        <v>72</v>
+      </c>
+      <c r="J154">
+        <v>48</v>
+      </c>
+      <c r="K154" t="s">
+        <v>73</v>
+      </c>
+      <c r="L154">
         <v>52</v>
       </c>
     </row>
@@ -6403,7 +7034,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G42:G86 I42:I86 D48:D86 K42:K86 E2:E86</xm:sqref>
+          <xm:sqref>G58:G102 I58:I102 D64:D102 K58:K102 E2:E102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
